--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -699,7 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1529,7 +1529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33">
       <c r="A41" s="5" t="s">
         <v>109</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5" t="s">
         <v>112</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="33">
       <c r="A43" s="5" t="s">
         <v>115</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>10.1399458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="33">
       <c r="A44" s="5" t="s">
         <v>117</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="33">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="5" t="s">
         <v>126</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>29658</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="559.5">
       <c r="A48" s="5" t="s">
         <v>128</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.475186494865336</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="5" t="s">
         <v>133</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="5" t="s">
         <v>135</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="5" t="s">
         <v>137</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="5" t="s">
         <v>139</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>10829</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5" t="s">
         <v>141</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>53117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5" t="s">
         <v>143</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>27925</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="208.5">
       <c r="A56" s="5" t="s">
         <v>145</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="127.5">
       <c r="A57" s="5" t="s">
         <v>148</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="5" t="s">
         <v>151</v>
       </c>
